--- a/Project 1/Project 1.5/wolves_possession_matchlogs.xlsx
+++ b/Project 1/Project 1.5/wolves_possession_matchlogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekchui/Documents/Programming/Personal/Projects/Football Analytics/Project 1/Project 1.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1EF1ED-4D3C-5F4C-9367-DF2B03CF36F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3245CBF-FBD4-E446-8918-465F9D10EB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="1220" windowWidth="51200" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -862,15 +862,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -971,8 +971,9 @@
       <c r="AH1" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>Top 6</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>Top 6</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>Bottom 14</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>Top 6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>Top 6</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>Top 6</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>Bottom 14</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>Top 6</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>Bottom 14</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>Bottom 14</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>Bottom 14</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>Bottom 14</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>Bottom 14</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>Bottom 14</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
